--- a/publication_details.xlsx
+++ b/publication_details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Y0pCki6q_DkC</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicotinamide mononucleotide adenylyltransferase 2 (NMNAT2) is an endogenous axon survival factor that maintains axon health by blocking activation of the downstream pro-degenerative protein SARM1 (sterile alpha and TIR motif containing protein 1). While complete absence of NMNAT2 in mice results in extensive axon truncation and perinatal lethality, the removal of SARM1 completely rescues these phenotypes. Reduced levels of NMNAT2 can be compatible with life; however, they compromise axon development and survival. Mice born expressing sub-heterozygous levels of NMNAT2 remain overtly normal into old age but develop axonal defects in vivo and in vitro as well as behavioural phenotypes. Therefore, it is important to examine the effects of constitutively low NMNAT2 expression on SARM1 activation and disease susceptibility. Here we demonstrate that chronically low NMNAT2 levels reduce prenatal viability in mice in a SARM1-dependent manner and lead to sub-lethal SARM1 activation in morphologically intact axons of superior cervical ganglion (SCG) primary cultures. This is characterised by a depletion in NAD(P) and compromised neurite outgrowth. We also show that chronically low NMNAT2 expression reverses the NAD-enhancing effect of nicotinamide riboside (NR) in axons in a SARM1-dependent manner. These data indicate that low NMNAT2 levels can trigger sub-lethal SARM1 activation which is detectable at the molecular level and could predispose to human axonal disorders</t>
+    <t xml:space="preserve">INTRODUCTION: Age-associated depletion in nicotinamide adenine dinucleotide (NAD+) concentrations has been implicated in metabolic, cardiovascular, and neurodegenerative disorders. Supplementation with NAD+ precursors, such as nicotinamide riboside (NR), offers a potential therapeutic avenue against neurodegenerative pathologies in aging, Alzheimer's disease, and related dementias. A crossover, double-blind, randomized placebo (PBO) controlled trial was conducted to test the safety and efficacy of 8 weeks' active treatment with NR (1 g/day) on cognition and plasma AD biomarkers in older adults with subjective cognitive decline and mild cognitive impairment. METHODS: The primary efficacy outcome was the Repeatable Battery for the Assessment of Neuropsychological Status (RBANS). Secondary outcomes included plasma phosphorylated tau 217 (pTau217), glial fibrillary acidic protein (GFAP), and neurofilament light chain (NfL). Exploratory outcomes included Lumosity gameplay (z-scores) for cognition and step counts from wearables. Mixed model for repeated measures was used for between-group comparisons; paired t-tests were used for within-individual comparisons. RESULTS: Forty-six participants aged over 55 were randomized to NR-PBO or PBO-NR groups; 41 completed baseline visits, and 37 completed the trial. NR supplementation was safe and well tolerated with no differences in adverse events reported between NR and PBO treatment phases. For the between-group comparison, there was a 7% reduction in pTau217 concentrations after taking NR, while an 18% increase with PBO (p = 0.02). No significant between-group differences were observed for RBANS, other plasma biomarkers(GFAP and NfL), Lumosity gameplay scores or step counts. For the within-individual comparison, pTau217 concentrations significantly decreased during the NR phase compared to the PBO (p = 0.02), while step counts significantly increased during the NR phase than PBO (p = 0.04). DISCUSSION: Eight weeks NR supplementation is safe and lowered pTau217 concentrations but did not alter cognition as measured by conventional or novel digital assessments. Further research is warranted to validate NR's efficacy in altering pathological brain aging processes. HIGHLIGHTS: The integrated study design combines a two-arm parallel trial with a crossover phase, offering the opportunity to enhance sample size for within-individual analysis and assess carryover effects.NR is safe but did not alter cognition as measured by multi-modal assessments in SCD/MCI.For between-group comparison, pTau217 levels decreased with NR and increased with PBO at 8-week follow-up.For within-individual comparison, step counts increased after NR and decreased after PBO.A larger, longer study with pharmacodynamic and pathophysiological biomarkers is needed to assess NR's disease-modifying effects</t>
   </si>
   <si>
     <t xml:space="preserve">Time-restricted feeding alters lipid and amino acid metabolite rhythmicity without perturbing clock gene expression</t>
@@ -266,6 +266,27 @@
     <t xml:space="preserve">Parental health influences embryonic development and susceptibility to disease in the offspring. We investigated whether maternal voluntary running during gestation could protect the offspring from the adverse effects of maternal or paternal high-fat diet (HF) in mice. We performed transcriptomic and whole-genome DNA methylation analyses in female offspring skeletal muscle and targeted DNA methylation analysis of the peroxisome proliferator-activated receptor-γ coactivator-1α (Pgc-1α) promoter in both male and female adult offspring. Maternal HF resulted in impaired metabolic homeostasis in male offspring at 9 mo of age, whereas both male and female offspring were negatively impacted by paternal HF. Maternal exercise during gestation completely mitigated these metabolic impairments. Female adult offspring from obese male or female parent had skeletal muscle transcriptional profiles enriched in genes regulating inflammation and immune responses, whereas maternal exercise resulted in a transcriptional profile similar to offspring from normal chow (NC)-fed parents. Maternal HF, but not paternal HF, resulted in hypermethylation of the Pgc-1α promoter at CpG-260, which was abolished by maternal exercise. These findings demonstrate the negative consequences of maternal and paternal HF for the offspring's metabolic outcomes later in life possibly through different epigenetic mechanisms, and maternal exercise during gestation mitigates the negative consequences.NEW &amp; NOTEWORTHY Maternal or paternal obesity causes metabolic impairment in adult offspring in mice. Maternal exercise during gestation can completely mitigate metabolic impairment. Maternal obesity, but not paternal obesity, results in hypermethylation of the Pgc-1α promoter at CpG-260, which can be abolished by maternal exercise</t>
   </si>
   <si>
+    <t xml:space="preserve">Deciphering inhibitory activity of flavonoids against tau protein kinases: a coupled molecular docking and quantum chemical study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H Rasouli, SMB Hosseini Ghazvini, R Yarani, A Altıntaş, SGN Jooneghani, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Biomolecular Structure and Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (1), 411-424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14786032825312586028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eQOLeE2rZwMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today, Alzheimer's disease (AD) is one of the most important neurodegenerative disorders that affected millions of people worldwide. Hundreds of academic investigations highlighted the potential roles of natural metabolites in the cornerstone of AD prevention. Nevertheless, alkaloids are only metabolites that successfully showed promising clinical therapeutic effects on the prevention of AD. In this regard, other plant metabolites such as flavonoids are also considered as promising substances in the improvement of AD complications. The lack of data on molecular mode of action of flavonoids inside brain tissues, and their potential to transport across the blood-brain barrier, a physical hindrance between bloodstream and brain tissues, limited the large-scale application of these compounds for AD therapy programs. Herein, a coupled docking and quantum study was applied to determine the binding mode of flavonoids and three protein kinases involved in the pathogenesis of AD. The results suggested that all docked metabolites showed considerable binding affinity to interact with target receptors, but some compounds possessed higher binding energy values. Because docking simulation cannot entirely reveal the potential roles of ligand substructures in the interaction with target residues, quantum chemical analyses (QCAs) were performed to cover this drawback. Accordingly, QCAs determined that distribution of molecular orbitals have a pivotal function in the determination of the type of reaction between ligands and receptors; therefore, using such quantum chemical descriptors may correct the results of virtual docking outcomes to highlight promising backbones for further developments.Communicated by Ramaswamy H. Sarma</t>
+  </si>
+  <si>
     <t xml:space="preserve">High-resolution kinetics and modeling of hydrogen peroxide degradation in live cells</t>
   </si>
   <si>
@@ -287,25 +308,46 @@
     <t xml:space="preserve">Although the role of oxidative stress factors and their regulation is well studied, the temporal dynamics of stress recovery is still poorly understood. In particular, measuring the kinetics of stress recovery in the first minutes after acute exposure provides a powerful technique for assessing the role of regulatory proteins or enzymes through the use of mutant backgrounds. This project endeavors to screen the temporal dynamics of intracellular oxidant levels in live cells as a function of gene deletion in the budding yeast, Saccharomyces cerevisiae. Using the detailed time dynamics of extra- and intra-cellular peroxide we have developed a mathematical model that describes two distinct kinetic processes, an initial rapid degradation in the first 10-20min followed by a slower process. Using this model, a qualitative comparison allowed us to assign the dependence of temporal events to genetic factors. Surprisingly, we found that the deletion of transcription factors Yap1p or Skn7p was sufficient to disrupt the establishment of the second degradation phase but not the initial phase. A better fundamental understanding of the role protective factors play in the recovery from oxidative stress may lead to strategies for protecting or sensitizing cell to this stress</t>
   </si>
   <si>
-    <t xml:space="preserve">Deciphering inhibitory activity of flavonoids against tau protein kinases: a coupled molecular docking and quantum chemical study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H Rasouli, SMB Hosseini Ghazvini, R Yarani, A Altıntaş, SGN Jooneghani, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of Biomolecular Structure and Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (1), 411-424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14786032825312586028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eQOLeE2rZwMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today, Alzheimer's disease (AD) is one of the most important neurodegenerative disorders that affected millions of people worldwide. Hundreds of academic investigations highlighted the potential roles of natural metabolites in the cornerstone of AD prevention. Nevertheless, alkaloids are only metabolites that successfully showed promising clinical therapeutic effects on the prevention of AD. In this regard, other plant metabolites such as flavonoids are also considered as promising substances in the improvement of AD complications. The lack of data on molecular mode of action of flavonoids inside brain tissues, and their potential to transport across the blood-brain barrier, a physical hindrance between bloodstream and brain tissues, limited the large-scale application of these compounds for AD therapy programs. Herein, a coupled docking and quantum study was applied to determine the binding mode of flavonoids and three protein kinases involved in the pathogenesis of AD. The results suggested that all docked metabolites showed considerable binding affinity to interact with target receptors, but some compounds possessed higher binding energy values. Because docking simulation cannot entirely reveal the potential roles of ligand substructures in the interaction with target residues, quantum chemical analyses (QCAs) were performed to cover this drawback. Accordingly, QCAs determined that distribution of molecular orbitals have a pivotal function in the determination of the type of reaction between ligands and receptors; therefore, using such quantum chemical descriptors may correct the results of virtual docking outcomes to highlight promising backbones for further developments.Communicated by Ramaswamy H. Sarma</t>
+    <t xml:space="preserve">White adipose remodeling during browning in mice involves YBX1 to drive thermogenic commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Rabiee, K Plucińska, MS Isidor, EL Brown, M Tozzi, S Sidoli, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44, 101137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10855275556706987817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LkGwnXOMwfcC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE: Increasing adaptive thermogenesis by stimulating browning in white adipose tissue is a promising method of improving metabolic health. However, the molecular mechanisms underlying this transition remain elusive. Our study examined the molecular determinants driving the differentiation of precursor cells into thermogenic adipocytes. METHODS: In this study, we conducted temporal high-resolution proteomic analysis of subcutaneous white adipose tissue (scWAT) after cold exposure in mice. This was followed by loss- and gain-of-function experiments using siRNA-mediated knockdown and CRISPRa-mediated induction of gene expression, respectively, to evaluate the function of the transcriptional regulator Y box-binding protein 1 (YBX1) during adipogenesis of brown pre-adipocytes and mesenchymal stem cells. Transcriptomic analysis of mesenchymal stem cells following induction of endogenous Ybx1 expression was conducted to elucidate transcriptomic events controlled by YBX1 during adipogenesis. RESULTS: Our proteomics analysis uncovered 509 proteins differentially regulated by cold in a time-dependent manner. Overall, 44 transcriptional regulators were acutely upregulated following cold exposure, among which included the cold-shock domain containing protein YBX1, peaking after 24 h. Cold-induced upregulation of YBX1 also occurred in brown adipose tissue, but not in visceral white adipose tissue, suggesting a role of YBX1 in thermogenesis. This role was confirmed by Ybx1 knockdown in brown and brite preadipocytes, which significantly impaired their thermogenic potential. Conversely, inducing Ybx1 expression in mesenchymal stem cells during adipogenesis promoted browning concurrent with an increased expression of thermogenic markers and enhanced mitochondrial respiration. At a molecular level, our transcriptomic analysis showed that YBX1 regulates a subset of genes, including the histone H3K9 demethylase Jmjd1c, to promote thermogenic adipocyte differentiation. CONCLUSION: Our study mapped the dynamic proteomic changes of murine scWAT during browning and identified YBX1 as a novel factor coordinating the genomic mechanisms by which preadipocytes commit to brite/beige lineage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcriptomic and epigenomics atlas of myotubes reveals insight into the circadian control of metabolism and development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Altıntaş, RC Laker, C Garde, R Barrès, JR Zierath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epigenomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (8), 701-713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7522814257999573298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YsMSGLbcyi4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim: Innate circadian rhythms are critical for optimal tissue-specific functions, including skeletal muscle, a major insulin-sensitive tissue responsible for glucose homeostasis. We determined whether transcriptional oscillations are associated with CpG methylation changes in skeletal muscle. Materials &amp; methods: We performed rhythmicity analysis on the transcriptome and CpG methylome of circadian synchronized myotubes. Results: We identified several transcripts and CpG-sites displaying oscillatory behavior, which were enriched with Gene Ontology terms related to metabolism and development. Oscillating CpG methylation was associated with rhythmic expression of 31 transcripts. Conclusion: Although circadian oscillations may be regulated by rhythmic DNA methylation, strong rhythmic associations between transcriptome and CpG methylation were not identified. This resource constitutes a transcriptomic/epigenomic atlas of skeletal muscle and regulation of circadian rhythms</t>
   </si>
   <si>
     <t xml:space="preserve">Quantification of oxidative stress phenotypes based on high-throughput growth profiling of protein kinase and phosphatase knockouts</t>
@@ -329,16 +371,31 @@
     <t xml:space="preserve">Cellular responses to oxidative stress are important for restoring redox balance and ensuring cell survival. Genetic defects in response factors can lead to impaired response to oxidative damage and contribute to disease and aging. In single cell organisms, such as yeasts, the integrity of the oxidative stress response can be observed through its influences on growth characteristics. In this study, we investigated the time-dependent batch growth effects as a function of oxidative stress levels in protein kinase and phosphatase deletion backgrounds of Saccharomyces cerevisiae. In total, 41 different protein kinases and phosphatase mutants were selected for their known activities in oxidative stress or other stress response pathways and were investigated for their dosage-dependent response to hydrogen peroxide. Detailed growth profiles were analyzed after the induction of stress for growth rate, lag time duration and growth efficiency, and by a novel method to identify stress-induced diauxic shift delay. This approach extracts more phenotypic information than traditional plate-based methods due to the assessment of time dynamics in the time scale of minutes. With this approach, we were able to identify surprisingly diverse sensitivity and resistance patterns as a function of gene knockout</t>
   </si>
   <si>
+    <t xml:space="preserve">Insulin resistance rewires the metabolic gene program and glucose utilization in human white adipocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Isidor, W Dong, RI Servin-Uribe, J Villarroel, A Altıntaş, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 (3), 535-543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10215645265687809920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fE2CSJIrl8C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perinatal exposure to nicotine alters spermatozoal DNA methylation near genes controlling nicotine action</t>
   </si>
   <si>
-    <t xml:space="preserve">A Altintaş, J Liu, O Fabre, TD Chuang, Y Wang, R Sakurai, GN Chehabi, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FASEB journal: official publication of the Federation of American Societies …</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">A Altıntaş, J Liu, O Fabre, TD Chuang, Y Wang, R Sakurai, GN Chehabi, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FASEB Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (7), e21702</t>
   </si>
   <si>
     <t xml:space="preserve">16612143477023853895</t>
@@ -350,66 +407,6 @@
     <t xml:space="preserve">Perinatal smoke/nicotine exposure alters lung development and causes asthma in exposed offspring, transmitted transgenerationally. The mechanism underlying the transgenerational inheritance of perinatal smoke/nicotine-induced asthma remains unknown, but germline epigenetic modulations may play a role. Using a well-established rat model of perinatal nicotine-induced asthma, we determined the DNA methylation pattern of spermatozoa of F1 rats exposed perinatally to nicotine in F0 gestation. To identify differentially methylated regions (DMRs), reduced representation bisulfite sequencing was performed on spermatozoa of F1 litters. The top regulated gene body and promoter DMRs were tested for lung gene expression levels, and key proteins involved in lung development and repair were determined. The overall CpG methylation in F1 sperms across gene bodies, promoters, 5'-UTRs, exons, introns, and 3'-UTRs was not affected by nicotine exposure. However, the methylation levels were different between the different genomic regions. Eighty one CpG sites, 16 gene bodies, and 3 promoter regions were differentially methylated. Gene enrichment analysis of DMRs revealed pathways involved in oxidative stress, nicotine response, alveolar and brain development, and cellular signaling. Among the DMRs, Dio1 and Nmu were the most hypermethylated and hypomethylated genes, respectively. Gene expression analysis showed that the mRNA expression and DNA methylation were incongruous. Key proteins involved in lung development and repair were significantly different (FDR &lt; 0.05) between the nicotine and placebo-treated groups. Our data show that DNA methylation is remodeled in offspring spermatozoa upon perinatal nicotine exposure. These epigenetic alterations may play a role in transgenerational inheritance of perinatal smoke/nicotine induced asthma</t>
   </si>
   <si>
-    <t xml:space="preserve">White adipose remodeling during browning in mice involves YBX1 to drive thermogenic commitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Rabiee, K Plucińska, MS Isidor, EL Brown, M Tozzi, S Sidoli, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44, 101137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10855275556706987817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LkGwnXOMwfcC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECTIVE: Increasing adaptive thermogenesis by stimulating browning in white adipose tissue is a promising method of improving metabolic health. However, the molecular mechanisms underlying this transition remain elusive. Our study examined the molecular determinants driving the differentiation of precursor cells into thermogenic adipocytes. METHODS: In this study, we conducted temporal high-resolution proteomic analysis of subcutaneous white adipose tissue (scWAT) after cold exposure in mice. This was followed by loss- and gain-of-function experiments using siRNA-mediated knockdown and CRISPRa-mediated induction of gene expression, respectively, to evaluate the function of the transcriptional regulator Y box-binding protein 1 (YBX1) during adipogenesis of brown pre-adipocytes and mesenchymal stem cells. Transcriptomic analysis of mesenchymal stem cells following induction of endogenous Ybx1 expression was conducted to elucidate transcriptomic events controlled by YBX1 during adipogenesis. RESULTS: Our proteomics analysis uncovered 509 proteins differentially regulated by cold in a time-dependent manner. Overall, 44 transcriptional regulators were acutely upregulated following cold exposure, among which included the cold-shock domain containing protein YBX1, peaking after 24 h. Cold-induced upregulation of YBX1 also occurred in brown adipose tissue, but not in visceral white adipose tissue, suggesting a role of YBX1 in thermogenesis. This role was confirmed by Ybx1 knockdown in brown and brite preadipocytes, which significantly impaired their thermogenic potential. Conversely, inducing Ybx1 expression in mesenchymal stem cells during adipogenesis promoted browning concurrent with an increased expression of thermogenic markers and enhanced mitochondrial respiration. At a molecular level, our transcriptomic analysis showed that YBX1 regulates a subset of genes, including the histone H3K9 demethylase Jmjd1c, to promote thermogenic adipocyte differentiation. CONCLUSION: Our study mapped the dynamic proteomic changes of murine scWAT during browning and identified YBX1 as a novel factor coordinating the genomic mechanisms by which preadipocytes commit to brite/beige lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcriptomic and epigenomics atlas of myotubes reveals insight into the circadian control of metabolism and development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Altıntaş, RC Laker, C Garde, R Barrès, JR Zierath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epigenomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (8), 701-713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7522814257999573298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YsMSGLbcyi4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aim: Innate circadian rhythms are critical for optimal tissue-specific functions, including skeletal muscle, a major insulin-sensitive tissue responsible for glucose homeostasis. We determined whether transcriptional oscillations are associated with CpG methylation changes in skeletal muscle. Materials &amp; methods: We performed rhythmicity analysis on the transcriptome and CpG methylome of circadian synchronized myotubes. Results: We identified several transcripts and CpG-sites displaying oscillatory behavior, which were enriched with Gene Ontology terms related to metabolism and development. Oscillating CpG methylation was associated with rhythmic expression of 31 transcripts. Conclusion: Although circadian oscillations may be regulated by rhythmic DNA methylation, strong rhythmic associations between transcriptome and CpG methylation were not identified. This resource constitutes a transcriptomic/epigenomic atlas of skeletal muscle and regulation of circadian rhythms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulin resistance rewires the metabolic gene program and glucose utilization in human white adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS Isidor, W Dong, RI Servin-Uribe, J Villarroel, A Altıntaş, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 (3), 535-543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10215645265687809920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3fE2CSJIrl8C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACKGROUND: In obesity, adipose tissue dysfunction resulting from excessive fat accumulation leads to systemic insulin resistance (IR), the underlying alteration of Type 2 Diabetes. The specific pathways dysregulated in dysfunctional adipocytes and the extent to which it affects adipose metabolic functions remain incompletely characterized. METHODS: We interrogated the transcriptional adaptation to increased adiposity in association with insulin resistance in visceral white adipose tissue from lean men, or men presenting overweight/obesity (BMI from 19 to 33) and discordant for insulin sensitivity. In human adipocytes in vitro, we investigated the direct contribution of IR in altering metabolic gene programming and glucose utilization using 13C-isotopic glucose tracing. RESULTS: We found that gene expression associated with impaired glucose and lipid metabolism and inflammation represented the strongest association with systemic insulin resistance, independently of BMI. In addition, we showed that inducing IR in mature human white adipocytes was sufficient to reprogram the transcriptional profile of genes involved in important metabolic functions such as glycolysis, the pentose phosphate pathway and de novo lipogenesis. Finally, we found that IR induced a rewiring of glucose metabolism, with higher incorporation of glucose into citrate, but not into downstream metabolites within the TCA cycle. CONCLUSIONS: Collectively, our data highlight the importance of obesity-derived insulin resistance in impacting the expression of key metabolic genes and impairing the metabolic processes of glucose utilization, and reveal a role for metabolic adaptation in adipose dysfunction in humans</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identification of two microRNA nodes as potential cooperative modulators of liver metabolism</t>
   </si>
   <si>
@@ -452,6 +449,27 @@
     <t xml:space="preserve">Polycystic ovary syndrome (PCOS) is a common endocrine disorder associated with insulin resistance and impaired energy metabolism in skeletal muscle, the aetiology of which is currently unclear. Here, we mapped the gene expression profile of skeletal muscle from women with PCOS and determined if cultured primary myotubes retain the gene expression signature of PCOS in vivo. Transcriptomic analysis of vastus lateralis biopsies collected from PCOS women showed lower expression of genes associated with mitochondrial function, while the expression of genes associated with the extracellular matrix was higher compared to controls. Altered skeletal muscle mRNA expression of mitochondrial-associated genes in PCOS was associated with lower protein expression of mitochondrial complex II-V, but not complex I, with no difference in mitochondrial DNA content. Transcriptomic analysis of primary myotube cultures established from biopsies did not display any differentially expressed genes between controls and PCOS. Comparison of gene expression profiles in skeletal muscle biopsies and primary myotube cultures showed lower expression of mitochondrial and energy metabolism-related genes in vitro, irrespective of the group. Together, our results show that the altered mitochondrial-associated gene expression in skeletal muscle in PCOS is not preserved in cultured myotubes, indicating that the in vivo extracellular milieu, rather than genetic or epigenetic factors, may drive this alteration. Dysregulation of mitochondrial-associated genes in skeletal muscle by extracellular factors may contribute to the impaired energy metabolism associated with PCOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Dietary fatty acid composition drives neuroinflammation and impaired behavior in obesity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Sanchez, C Colson, N Gautier, P Noser, J Salvi, M Villet, L Fleuriot, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain, Behavior, and Immunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117, 330-346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14547868889203847925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3ejUd6NZC8C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrient composition in obesogenic diets may influence the severity of disorders associated with obesity such as insulin-resistance and chronic inflammation. Here we hypothesized that obesogenic diets rich in fat and varying in fatty acid composition, particularly in omega 6 (ω6) to omega 3 (ω3) ratio, have various effects on energy metabolism, neuroinflammation and behavior. Mice were fed either a control diet or a high fat diet (HFD) containing either low (LO), medium (ME) or high (HI) ω6/ω3 ratio. Mice from the HFD-LO group consumed less calories and exhibited less body weight gain compared to other HFD groups. Both HFD-ME and HFD-HI impaired glucose metabolism while HFD-LO partly prevented insulin intolerance and was associated with normal leptin levels despite higher subcutaneous and perigonadal adiposity. Only HFD-HI increased anxiety and impaired spatial memory, together with increased inflammation in the hypothalamus and hippocampus. Our results show that impaired glucose metabolism and neuroinflammation are uncoupled, and support that diets with a high ω6/ω3 ratio are associated with neuroinflammation and the behavioral deterioration coupled with the consumption of diets rich in fat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Environmental factors influence the epigenetic signature of newborns from mothers with gestational diabetes</t>
   </si>
   <si>
@@ -491,27 +509,6 @@
     <t xml:space="preserve">Obesity and elevated circulating lipids may impair metabolism by disrupting the molecular circadian clock. We tested the hypothesis that lipid overload may interact with the circadian clock and alter the rhythmicity of gene expression through epigenomic mechanisms in skeletal muscle. Palmitate reprogrammed the circadian transcriptome in myotubes without altering the rhythmic mRNA expression of core clock genes. Genes with enhanced cycling in response to palmitate were associated with post-translational modification of histones. The cycling of histone 3 lysine 27 acetylation (H3K27ac), a marker of active gene enhancers, was modified by palmitate treatment. Chromatin immunoprecipitation and sequencing confirmed that palmitate exposure altered the cycling of DNA regions associated with H3K27ac. The overlap between mRNA and DNA regions associated with H3K27ac and the pharmacological inhibition of histone acetyltransferases revealed novel cycling genes associated with lipid exposure of primary human myotubes. Palmitate exposure disrupts transcriptomic rhythmicity and modifies enhancers through changes in histone H3K27 acetylation in a circadian manner. Thus, histone acetylation is responsive to lipid overload and may redirect the circadian chromatin landscape, leading to the reprogramming of circadian genes and pathways involved in lipid biosynthesis in skeletal muscle</t>
   </si>
   <si>
-    <t xml:space="preserve">Dietary fatty acid composition drives neuroinflammation and impaired behavior in obesity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C Sanchez, C Colson, N Gautier, P Noser, J Salvi, M Villet, L Fleuriot, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain, Behavior, and Immunity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117, 330-346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14547868889203847925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3ejUd6NZC8C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient composition in obesogenic diets may influence the severity of disorders associated with obesity such as insulin-resistance and chronic inflammation. Here we hypothesized that obesogenic diets rich in fat and varying in fatty acid composition, particularly in omega 6 (ω6) to omega 3 (ω3) ratio, have various effects on energy metabolism, neuroinflammation and behavior. Mice were fed either a control diet or a high fat diet (HFD) containing either low (LO), medium (ME) or high (HI) ω6/ω3 ratio. Mice from the HFD-LO group consumed less calories and exhibited less body weight gain compared to other HFD groups. Both HFD-ME and HFD-HI impaired glucose metabolism while HFD-LO partly prevented insulin intolerance and was associated with normal leptin levels despite higher subcutaneous and perigonadal adiposity. Only HFD-HI increased anxiety and impaired spatial memory, together with increased inflammation in the hypothalamus and hippocampus. Our results show that impaired glucose metabolism and neuroinflammation are uncoupled, and support that diets with a high ω6/ω3 ratio are associated with neuroinflammation and the behavioral deterioration coupled with the consumption of diets rich in fat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transforming growth factor β1 impairs the transcriptomic response to contraction in myotubes from women with polycystic ovary syndrome</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t xml:space="preserve">UebtZRa9Y70C</t>
   </si>
   <si>
-    <t xml:space="preserve">The profound energy-expending nature of brown adipose tissue (BAT) thermogenesis makes it an attractive target tissue to combat obesity-associated metabolic disorders. While cold exposure is the strongest inducer of BAT activity, the temporal mechanisms tuning BAT adaptation during this activation process are incompletely understood. Here we show that the scaffold protein Afadin is dynamically regulated by cold in BAT, and participates in cold acclimation. Cold exposure acutely increases Afadin protein levels and its phosphorylation in BAT. Knockdown of Afadin in brown pre-adipocytes does not alter adipogenesis but restricts β3-adrenegic induction of thermogenic genes expression and HSL phosphorylation in mature brown adipocytes. Consistent with a defect in thermogenesis, an impaired cold tolerance was observed in fat-specific Afadin knockout mice. However, while Afadin depletion led to reduced Ucp1 mRNA induction by cold, stimulation of Ucp1 protein was conserved. Transcriptomic analysis revealed that fat-specific ablation of Afadin led to decreased functional enrichment of gene sets controlling essential metabolic functions at thermoneutrality in BAT, whereas it led to an altered reprogramming in response to cold, with enhanced enrichment of different pathways related to metabolism and remodeling. Collectively, we demonstrate a role for Afadin in supporting the adrenergic response in brown adipocytes and BAT function</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comparative analysis of sperm DNA methylation supports evolutionary acquired epigenetic plasticity for organ speciation</t>
   </si>
   <si>
@@ -591,12 +585,6 @@
   </si>
   <si>
     <t xml:space="preserve">Attendees of the Danish Diabetes Academy Winter School 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturated Fat Impairs Circadian Transcriptomics through Histone Modification of Enhancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_kc_bZDykSQC</t>
   </si>
 </sst>
 </file>
@@ -644,8 +632,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I29" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I28" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I28"/>
   <tableColumns count="9">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="author"/>
@@ -989,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F2" t="n">
         <v>2019</v>
@@ -1018,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F3" t="n">
         <v>2020</v>
@@ -1047,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F4" t="n">
         <v>2020</v>
@@ -1076,7 +1064,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F5" t="n">
         <v>2021</v>
@@ -1105,7 +1093,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
         <v>2019</v>
@@ -1134,7 +1122,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" t="n">
         <v>2019</v>
@@ -1163,7 +1151,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>2021</v>
@@ -1192,7 +1180,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
         <v>2020</v>
@@ -1221,7 +1209,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
         <v>2019</v>
@@ -1250,7 +1238,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>2014</v>
@@ -1279,7 +1267,7 @@
         <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>2021</v>
@@ -1308,10 +1296,10 @@
         <v>87</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
@@ -1337,10 +1325,10 @@
         <v>94</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G14" t="s">
         <v>95</v>
@@ -1366,10 +1354,10 @@
         <v>101</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G15" t="s">
         <v>102</v>
@@ -1395,10 +1383,10 @@
         <v>108</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G16" t="s">
         <v>109</v>
@@ -1424,10 +1412,10 @@
         <v>115</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="G17" t="s">
         <v>116</v>
@@ -1447,68 +1435,66 @@
         <v>120</v>
       </c>
       <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>125</v>
-      </c>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
         <v>126</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>127</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" t="n">
-        <v>11</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>129</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>130</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
         <v>132</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>133</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>134</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
@@ -1517,27 +1503,27 @@
         <v>2019</v>
       </c>
       <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
         <v>136</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>137</v>
-      </c>
-      <c r="I20" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>140</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1546,33 +1532,33 @@
         <v>2022</v>
       </c>
       <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
         <v>143</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>144</v>
-      </c>
-      <c r="I21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
         <v>146</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>147</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>148</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="G22" t="s">
         <v>149</v>
@@ -1592,97 +1578,97 @@
         <v>153</v>
       </c>
       <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
         <v>154</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G23" t="s">
         <v>155</v>
       </c>
-      <c r="E23" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>156</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>157</v>
-      </c>
-      <c r="I23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>160</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>161</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G24" t="s">
         <v>162</v>
       </c>
-      <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>163</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>164</v>
-      </c>
-      <c r="I24" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
         <v>166</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>167</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>168</v>
       </c>
-      <c r="D25" t="s">
-        <v>169</v>
-      </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>2022</v>
       </c>
       <c r="G25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" t="s">
         <v>170</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>171</v>
-      </c>
-      <c r="I25" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
         <v>173</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>174</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>175</v>
-      </c>
-      <c r="D26" t="s">
-        <v>176</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -1691,27 +1677,25 @@
         <v>2021</v>
       </c>
       <c r="G26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
         <v>177</v>
       </c>
-      <c r="H26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" t="s">
-        <v>179</v>
-      </c>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
         <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" t="s">
-        <v>182</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1720,27 +1704,27 @@
         <v>2022</v>
       </c>
       <c r="G27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" t="s">
         <v>183</v>
-      </c>
-      <c r="H27" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
         <v>186</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>187</v>
-      </c>
-      <c r="C28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" t="s">
-        <v>189</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1749,40 +1733,13 @@
         <v>2020</v>
       </c>
       <c r="G28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" t="s">
         <v>190</v>
-      </c>
-      <c r="H28" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
